--- a/InventoryTracker-WebApp/ExcelFiles/Equipment_Template.xlsx
+++ b/InventoryTracker-WebApp/ExcelFiles/Equipment_Template.xlsx
@@ -22,10 +22,10 @@
     <t>DataType</t>
   </si>
   <si>
-    <t>Seqance</t>
+    <t>EquipmentType</t>
   </si>
   <si>
-    <t>EquipmentType</t>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +418,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
